--- a/project/static/import/templates/DatoSubjetivo.xlsx
+++ b/project/static/import/templates/DatoSubjetivo.xlsx
@@ -22,6 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t xml:space="preserve">deportista</t>
+  </si>
+  <si>
     <t xml:space="preserve">fecha</t>
   </si>
   <si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">colorOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deportista</t>
   </si>
 </sst>
 </file>
@@ -165,19 +165,20 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,7 +214,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/project/static/import/templates/DatoSubjetivo.xlsx
+++ b/project/static/import/templates/DatoSubjetivo.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="datos_subjetivos" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Datos Subjetivos" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -165,10 +165,10 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
